--- a/updated_scripts/data/glmm/selected_vars_glmm_presence_obscot_clc2.xlsx
+++ b/updated_scripts/data/glmm/selected_vars_glmm_presence_obscot_clc2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73ee685cf225dcc/Desktop/uni/M2 stage/Cullicoides_data/updated_scripts/data/glmm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73ee685cf225dcc/Desktop/uni/M2 stage/Cullicoides_data/CIRAD/culicoides_ml/updated_scripts/data/glmm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{64247B2A-13D6-4477-BE60-EAD6C9CCD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9922F09-A4BF-4213-9391-89AA50DD6712}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{64247B2A-13D6-4477-BE60-EAD6C9CCD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3892182D-A6C5-46D2-B0DC-4B5E50E8CC35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9EE9BFD1-8D86-4BE3-82AE-9E90369858E4}"/>
+    <workbookView xWindow="6255" yWindow="-15600" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{9EE9BFD1-8D86-4BE3-82AE-9E90369858E4}"/>
   </bookViews>
   <sheets>
     <sheet name="glmm_presence_obscot_clc2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>term</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>PP_0_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORCED ADDED </t>
+  </si>
+  <si>
+    <t>SWV_0_4</t>
+  </si>
+  <si>
+    <t>NDVI_0_1</t>
+  </si>
+  <si>
+    <t>EVI_0_3</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -843,6 +855,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -888,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -904,25 +925,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,7 +941,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -988,10 +1016,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,33 +2761,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AC5DDE-D49F-486D-92F4-529742C299F0}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2796,12 +2820,12 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="Q2" s="4" t="s">
         <v>79</v>
       </c>
@@ -2840,17 +2864,17 @@
       <c r="L3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -2883,10 +2907,10 @@
       <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="7" t="s">
         <v>70</v>
       </c>
@@ -2928,10 +2952,10 @@
       <c r="L5" s="6">
         <v>2</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="7" t="s">
         <v>70</v>
       </c>
@@ -2973,10 +2997,10 @@
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="7" t="s">
         <v>70</v>
       </c>
@@ -3018,10 +3042,10 @@
       <c r="L7" s="6">
         <v>5</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="7" t="s">
         <v>70</v>
       </c>
@@ -3063,10 +3087,10 @@
       <c r="L8" s="6">
         <v>6</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3108,10 +3132,10 @@
       <c r="L9" s="6">
         <v>7</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="7" t="s">
         <v>70</v>
       </c>
@@ -3153,17 +3177,17 @@
       <c r="L10" s="6">
         <v>8</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3198,13 +3222,17 @@
       <c r="L11" s="6">
         <v>9</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="Q11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -3237,12 +3265,15 @@
       <c r="L12" s="6">
         <v>10</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -3276,12 +3307,15 @@
       <c r="L13" s="6">
         <v>11</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -3315,12 +3349,15 @@
       <c r="L14" s="6">
         <v>12</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -3354,10 +3391,10 @@
       <c r="L15" s="6">
         <v>13</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="8" t="s">
         <v>72</v>
       </c>
@@ -3393,10 +3430,10 @@
       <c r="L16" s="6">
         <v>14</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="8" t="s">
         <v>72</v>
       </c>
@@ -3430,17 +3467,18 @@
         <v>3.4350157457471598E-3</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="M3:N3"/>
+  <mergeCells count="21">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
@@ -3451,11 +3489,11 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
